--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5.049772999999999</v>
+      </c>
+      <c r="H2">
+        <v>15.149319</v>
+      </c>
+      <c r="I2">
+        <v>0.1400646900514762</v>
+      </c>
+      <c r="J2">
+        <v>0.1400646900514762</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>2.164609666666667</v>
-      </c>
-      <c r="H2">
-        <v>6.493829</v>
-      </c>
-      <c r="I2">
-        <v>0.06870390863591093</v>
-      </c>
-      <c r="J2">
-        <v>0.06870390863591092</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.0761</v>
+        <v>0.325274</v>
       </c>
       <c r="N2">
-        <v>0.2283</v>
+        <v>0.975822</v>
       </c>
       <c r="O2">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283401</v>
       </c>
       <c r="P2">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283402</v>
       </c>
       <c r="Q2">
-        <v>0.1647267956333333</v>
+        <v>1.642559862802</v>
       </c>
       <c r="R2">
-        <v>1.4825411607</v>
+        <v>14.783038765218</v>
       </c>
       <c r="S2">
-        <v>0.02093163845094671</v>
+        <v>0.0656897373459381</v>
       </c>
       <c r="T2">
-        <v>0.0209316384509467</v>
+        <v>0.06568973734593811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.164609666666667</v>
+        <v>5.049772999999999</v>
       </c>
       <c r="H3">
-        <v>6.493829</v>
+        <v>15.149319</v>
       </c>
       <c r="I3">
-        <v>0.06870390863591093</v>
+        <v>0.1400646900514762</v>
       </c>
       <c r="J3">
-        <v>0.06870390863591092</v>
+        <v>0.1400646900514762</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.173683</v>
+        <v>0.3682803333333333</v>
       </c>
       <c r="N3">
-        <v>0.521049</v>
+        <v>1.104841</v>
       </c>
       <c r="O3">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716598</v>
       </c>
       <c r="P3">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716599</v>
       </c>
       <c r="Q3">
-        <v>0.3759559007356667</v>
+        <v>1.859732083697666</v>
       </c>
       <c r="R3">
-        <v>3.383603106621</v>
+        <v>16.737588753279</v>
       </c>
       <c r="S3">
-        <v>0.04777227018496422</v>
+        <v>0.07437495270553809</v>
       </c>
       <c r="T3">
-        <v>0.04777227018496421</v>
+        <v>0.07437495270553811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>61.262838</v>
       </c>
       <c r="I4">
-        <v>0.648153258228483</v>
+        <v>0.5664122866607931</v>
       </c>
       <c r="J4">
-        <v>0.648153258228483</v>
+        <v>0.5664122866607931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0761</v>
+        <v>0.325274</v>
       </c>
       <c r="N4">
-        <v>0.2283</v>
+        <v>0.975822</v>
       </c>
       <c r="O4">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283401</v>
       </c>
       <c r="P4">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283402</v>
       </c>
       <c r="Q4">
-        <v>1.5540339906</v>
+        <v>6.642402789204001</v>
       </c>
       <c r="R4">
-        <v>13.9863059154</v>
+        <v>59.781625102836</v>
       </c>
       <c r="S4">
-        <v>0.1974692551181928</v>
+        <v>0.2656449268304903</v>
       </c>
       <c r="T4">
-        <v>0.1974692551181928</v>
+        <v>0.2656449268304903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>61.262838</v>
       </c>
       <c r="I5">
-        <v>0.648153258228483</v>
+        <v>0.5664122866607931</v>
       </c>
       <c r="J5">
-        <v>0.648153258228483</v>
+        <v>0.5664122866607931</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.173683</v>
+        <v>0.3682803333333333</v>
       </c>
       <c r="N5">
-        <v>0.521049</v>
+        <v>1.104841</v>
       </c>
       <c r="O5">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716598</v>
       </c>
       <c r="P5">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716599</v>
       </c>
       <c r="Q5">
-        <v>3.546771164118</v>
+        <v>7.520632799862</v>
       </c>
       <c r="R5">
-        <v>31.920940477062</v>
+        <v>67.685695198758</v>
       </c>
       <c r="S5">
-        <v>0.4506840031102902</v>
+        <v>0.3007673598303028</v>
       </c>
       <c r="T5">
-        <v>0.4506840031102902</v>
+        <v>0.3007673598303028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.613652999999999</v>
+        <v>10.258872</v>
       </c>
       <c r="H6">
-        <v>25.840959</v>
+        <v>30.776616</v>
       </c>
       <c r="I6">
-        <v>0.2733941540807927</v>
+        <v>0.2845485781158417</v>
       </c>
       <c r="J6">
-        <v>0.2733941540807927</v>
+        <v>0.2845485781158416</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.0761</v>
+        <v>0.325274</v>
       </c>
       <c r="N6">
-        <v>0.2283</v>
+        <v>0.975822</v>
       </c>
       <c r="O6">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283401</v>
       </c>
       <c r="P6">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283402</v>
       </c>
       <c r="Q6">
-        <v>0.6554989932999999</v>
+        <v>3.336944330928</v>
       </c>
       <c r="R6">
-        <v>5.8994909397</v>
+        <v>30.032498978352</v>
       </c>
       <c r="S6">
-        <v>0.08329347924217551</v>
+        <v>0.1334520595570531</v>
       </c>
       <c r="T6">
-        <v>0.08329347924217551</v>
+        <v>0.1334520595570531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.613652999999999</v>
+        <v>10.258872</v>
       </c>
       <c r="H7">
-        <v>25.840959</v>
+        <v>30.776616</v>
       </c>
       <c r="I7">
-        <v>0.2733941540807927</v>
+        <v>0.2845485781158417</v>
       </c>
       <c r="J7">
-        <v>0.2733941540807927</v>
+        <v>0.2845485781158416</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.173683</v>
+        <v>0.3682803333333333</v>
       </c>
       <c r="N7">
-        <v>0.521049</v>
+        <v>1.104841</v>
       </c>
       <c r="O7">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716598</v>
       </c>
       <c r="P7">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716599</v>
       </c>
       <c r="Q7">
-        <v>1.496045093999</v>
+        <v>3.778140799784</v>
       </c>
       <c r="R7">
-        <v>13.464405845991</v>
+        <v>34.003267198056</v>
       </c>
       <c r="S7">
-        <v>0.1901006748386172</v>
+        <v>0.1510965185587885</v>
       </c>
       <c r="T7">
-        <v>0.1901006748386172</v>
+        <v>0.1510965185587885</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3071453333333333</v>
+        <v>0.323557</v>
       </c>
       <c r="H8">
-        <v>0.9214359999999999</v>
+        <v>0.9706710000000001</v>
       </c>
       <c r="I8">
-        <v>0.009748679054813303</v>
+        <v>0.008974445171889013</v>
       </c>
       <c r="J8">
-        <v>0.009748679054813301</v>
+        <v>0.008974445171889013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.0761</v>
+        <v>0.325274</v>
       </c>
       <c r="N8">
-        <v>0.2283</v>
+        <v>0.975822</v>
       </c>
       <c r="O8">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283401</v>
       </c>
       <c r="P8">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283402</v>
       </c>
       <c r="Q8">
-        <v>0.02337375986666667</v>
+        <v>0.105244679618</v>
       </c>
       <c r="R8">
-        <v>0.2103638388</v>
+        <v>0.947202116562</v>
       </c>
       <c r="S8">
-        <v>0.002970075930192577</v>
+        <v>0.0042089761948586</v>
       </c>
       <c r="T8">
-        <v>0.002970075930192576</v>
+        <v>0.0042089761948586</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3071453333333333</v>
+        <v>0.323557</v>
       </c>
       <c r="H9">
-        <v>0.9214359999999999</v>
+        <v>0.9706710000000001</v>
       </c>
       <c r="I9">
-        <v>0.009748679054813303</v>
+        <v>0.008974445171889013</v>
       </c>
       <c r="J9">
-        <v>0.009748679054813301</v>
+        <v>0.008974445171889013</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.173683</v>
+        <v>0.3682803333333333</v>
       </c>
       <c r="N9">
-        <v>0.521049</v>
+        <v>1.104841</v>
       </c>
       <c r="O9">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716598</v>
       </c>
       <c r="P9">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716599</v>
       </c>
       <c r="Q9">
-        <v>0.05334592292933334</v>
+        <v>0.1191596798123333</v>
       </c>
       <c r="R9">
-        <v>0.480113306364</v>
+        <v>1.072437118311</v>
       </c>
       <c r="S9">
-        <v>0.006778603124620726</v>
+        <v>0.004765468977030412</v>
       </c>
       <c r="T9">
-        <v>0.006778603124620725</v>
+        <v>0.004765468977030412</v>
       </c>
     </row>
   </sheetData>
